--- a/search_boatlisting/output/boatlist.xlsx
+++ b/search_boatlisting/output/boatlist.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Tablib Dataset" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tablib Dataset" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H66"/>
+  <dimension ref="A1:H112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -429,7 +429,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>May 27, 2021 12:23 Currency=CAD</t>
+          <t>May 27, 2021 18:00 Currency=CAD</t>
         </is>
       </c>
     </row>
@@ -478,2690 +478,4182 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Islander Freeport 41</t>
+          <t>Frers 45</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>91000</t>
+          <t>113,425</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>41' / 1978</t>
+          <t>45 ft / 1990</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>La Paz BCS Mexico, Outside United States</t>
+          <t>Vancouver, British Columbia, Canada</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=90935</t>
+          <t>https://www.yachtworld.com/boats/1990/frers-45-3750785/</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/90935/main.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/49/86/7714986_20210114105220489_1_LARGE.jpg?w=243&amp;h=155&amp;t=1610650384</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>30-Apr-2021</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Marcos MC39</t>
+          <t>Custom Marcos MC39</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>105000</t>
+          <t>89,900</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>45' / 1981</t>
+          <t>45 ft / 1981</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Squamish BC, Outside United States</t>
+          <t>Squamish, British Columbia, Canada</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=89560</t>
+          <t>https://www.yachtworld.com/boats/1981/custom-marcos-mc39-3749972/</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/89560/main.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/72/93/7717293_20210116084041955_1_LARGE.jpg?w=243&amp;h=155&amp;t=1610815243</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>12-Jan-2021</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Columbia Yachts Coronado</t>
+          <t>Jeanneau Sun Magic 44</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>65800</t>
+          <t>95,000</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>45' / 1974</t>
+          <t>44 ft / 1990</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>La Paz BCS, Outside United States</t>
+          <t>Nanaimo, British Columbia, Canada</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=89419</t>
+          <t>https://www.yachtworld.com/boats/1990/jeanneau-sun-magic-44-3833970/</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/89419/main.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/60/93/7866093_20210508204726666_1_LARGE.jpg?w=243&amp;h=155&amp;t=1620536845</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>28-Dec-2020</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Cavalier Cavalier 39</t>
+          <t>Hunter 43</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>93800</t>
+          <t>84,950</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>39' / 1982</t>
+          <t>43 ft / 1992</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>La Paz BCS Mexico, Outside United States</t>
+          <t>Pender Island, British Columbia, Canada</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=87011</t>
+          <t>https://www.yachtworld.com/boats/1992/hunter-43-3828806/</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/87011/main.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/89/29/7858929_20210421152649836_1_LARGE.jpg?w=243&amp;h=155&amp;t=1619044068</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>17-Jul-2020</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Ericson 36 MK 111</t>
+          <t>Catalina MKI</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>67200</t>
+          <t>118,000</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>36' / 1986</t>
+          <t>42 ft / 1990</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Vancouver BC Canada, Outside United States</t>
+          <t>Sidney, British Columbia, Canada</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=82942</t>
+          <t>https://www.yachtworld.com/boats/1990/catalina-mki-3831098/</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/82942/main.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/22/37/7862237_20210429122637218_1_LARGE.jpg?w=376&amp;h=253&amp;t=1620998932</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>08-Oct-2019</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Whitby Whitby 42</t>
+          <t>Maple Leaf 42</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>84000</t>
+          <t>89,000</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>42' / 1979</t>
+          <t>42 ft / 1977</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Lund bc canada, Outside United States</t>
+          <t>Vancouver, British Columbia, Canada</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=80396</t>
+          <t>https://www.yachtworld.com/boats/1977/maple-leaf-42-3823746/</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/80396/main.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/7/79/7820779_20210313123628007_1_LARGE.jpg?w=243&amp;h=155&amp;t=1615668773</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>10-Jun-2019</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CATALINA HULL</t>
+          <t>Sloop Radford R415 Expedition Yacht</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>84000</t>
+          <t>78,432</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>42' / fiberglass  monohull</t>
+          <t>41 ft / 2005</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Lund bc canada, Outside United States</t>
+          <t>Richmond, British Columbia, Canada</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=77787</t>
+          <t>https://www.yachtworld.com/boats/2005/sloop-radford-r415-expedition-yacht-3832034/</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/77787/main.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/89/63/7868963_20210503134810832_1_LARGE.jpg?w=243&amp;h=155&amp;t=1620074892</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>28-Jan-2019</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Columbia Columbia 34 mk II</t>
+          <t>Beneteau First 405</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>30799</t>
+          <t>79,400</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>34' / 1972</t>
+          <t>41 ft / 1986</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Galiano Island BC, Outside United States</t>
+          <t>Duncan, British Columbia, Canada</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=74147</t>
+          <t>https://www.yachtworld.com/boats/1986/beneteau-first-405-3824146/</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/74147/main.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/44/42/7834442_20210406144449154_1_LARGE.jpg?w=376&amp;h=253&amp;t=1617746273</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>06-Jul-2018</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pilot house</t>
+          <t>O'Day 39</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>91000</t>
+          <t>79,900</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>41' / 1972</t>
+          <t>39 ft / 1983</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Richmond BC Canada, Outside United States</t>
+          <t>Ladysmith, British Columbia, Canada</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=73490</t>
+          <t>https://www.yachtworld.com/boats/1983/o-day-39-3829693/</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/73490/image132.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/10/68/7861068_20210423125208553_1_LARGE.jpg?w=243&amp;h=155&amp;t=1619296411</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>08-Jun-2018</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Maple Leaf Sloop</t>
+          <t>Gulfstar 39 Sail Master</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>91000</t>
+          <t>72,900</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>42' / 1979</t>
+          <t>39 ft / 1981</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Campbell River BC Canada, Outside United States</t>
+          <t>Vancouver, British Columbia, Canada</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=72029</t>
+          <t>https://www.yachtworld.com/boats/1981/gulfstar-39-sail-master-3836785/</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/72029/01.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/2/60/7890260_20210518123637000_1_LARGE.jpg?w=243&amp;h=155&amp;t=1621367169</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>11-Apr-2018</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Pearson 35</t>
+          <t>Fast Passage Tollycraft</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>91000</t>
+          <t>110,900</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>35' / 1974</t>
+          <t>39 ft / 1983</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>$36,383</t>
+          <t>Powell River, British Columbia, Canada</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=89196</t>
+          <t>https://www.yachtworld.com/boats/1983/fast-passage-tollycraft-3832425/</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/89196/main.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/97/60/7869760_20210504095751315_1_LARGE.jpg?w=243&amp;h=155&amp;t=1620147472</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>03-Dec-2020</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Ericson 36 MK 111</t>
+          <t>Bruce Roberts 38</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>67200</t>
+          <t>60,000</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>36' / 1986</t>
+          <t>38 ft / 1994</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Vancouver BC Canada, Outside United States</t>
+          <t>Duncan, British Columbia, Canada</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=82942</t>
+          <t>https://www.yachtworld.com/boats/1994/bruce-roberts-38-3717425/</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/82942/main.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/40/12/7594012_20200918134537218_1_LARGE.jpg?w=243&amp;h=155&amp;t=1600462097</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>08-Oct-2019</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>J BOAT J35</t>
+          <t>C&amp;C 38</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>55,000</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>35' / 1983</t>
+          <t>38 ft / 1977</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NANAIMO VANCOUVER ISLAND, Outside United States</t>
+          <t>Parksville, British Columbia, Canada</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=81106</t>
+          <t>https://www.yachtworld.com/boats/1977/c-c-38-3838868/</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/81106/main.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/59/15/7895915_20210524140329702_1_LARGE.jpg?w=243&amp;h=155&amp;t=1621949866</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>10-Jul-2019</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Hunter 43</t>
+          <t>Rafiki 37 Cutter</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>95120</t>
+          <t>54,900</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>43' / 1992</t>
+          <t>37 ft / 1976</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Pender Island British Columbia Canada, Outside United States</t>
+          <t>Nanoose Bay, British Columbia, Canada</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=90822</t>
+          <t>https://www.yachtworld.com/boats/1976/rafiki-37-cutter-3837164/</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/90822/main.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/89/90/7888990_20210517110635025_1_LARGE.jpg?w=243&amp;h=155&amp;t=1621275611</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>22-Apr-2021</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Endurance 35</t>
+          <t>Valiant 37 Cutter</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>44587</t>
+          <t>79,000</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>35' / 1975</t>
+          <t>37 ft / 1983</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Van Anda British Columbia Canada, Outside United States</t>
+          <t>Comox, British Columbia, Canada</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=90778</t>
+          <t>https://www.yachtworld.com/boats/1983/valiant-37-cutter-3828277/</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/90778/main.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/72/99/7857299_20210420101945396_1_LARGE.jpg?w=243&amp;h=155&amp;t=1618939186</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>20-Apr-2021</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Custom Lee Holland 41</t>
+          <t>Cooper Banner 37</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>44587</t>
+          <t>69,900</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>41' / 1974</t>
+          <t>37 ft / 1983</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>$73,856</t>
+          <t>Duncan, British Columbia, Canada</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=90415</t>
+          <t>https://www.yachtworld.com/boats/1983/cooper-banner-37-3621192/</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/90415/main.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/91/32/7319132_20210110175611993_1_LARGE.jpg?w=376&amp;h=253&amp;t=1610330583</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>25-Mar-2021</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Sceptre 36</t>
+          <t>C&amp;C Sloop</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>44587</t>
+          <t>75,000</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>36' / motorsailer</t>
+          <t>37 ft / 1982</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>$73,856</t>
+          <t>North Vancouver, British Columbia, Canada</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=89723</t>
+          <t>https://www.yachtworld.com/boats/1982/c-c-sloop-3529213/</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/89723/main.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/62/14/7046214_20190411102147232_1_LARGE.jpg?w=243&amp;h=155&amp;t=1555003384</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>27-Jan-2021</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Custom Marcos MC39</t>
+          <t>Custom Truant Triad 370</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>107605</t>
+          <t>95,000</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>45' / 1981</t>
+          <t>37 ft / 2017</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Squamish British Columbia Canada, Outside United States</t>
+          <t>Campbell River, British Columbia, Canada</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=89602</t>
+          <t>https://www.yachtworld.com/boats/2017/custom-truant-triad-370-3828026/</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/89602/main.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/0/96/7840096_20210412121702255_1_LARGE.jpg?w=243&amp;h=155&amp;t=1618255023</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>17-Jan-2021</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Custom Brent Swain 36</t>
+          <t>Tayana 37</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>107605</t>
+          <t>69,900</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>36' / 2006</t>
+          <t>37 ft / 1976</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>$60,000</t>
+          <t>Ladysmith, British Columbia, Canada</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=89532</t>
+          <t>https://www.yachtworld.com/boats/1976/tayana-37-3593789/</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/89532/main.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/46/35/7234635_20191003161753241_1_LARGE.jpg?w=376&amp;h=253&amp;t=1570145006</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>10-Jan-2021</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Pearson 35</t>
+          <t>Hunter Vision 36</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>107605</t>
+          <t>79,500</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>35' / 1974</t>
+          <t>36 ft / 1992</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>$36,383</t>
+          <t>Vancouver, British Columbia, Canada</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=89196</t>
+          <t>https://www.yachtworld.com/boats/1992/hunter-vision-36-3815543/</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/89196/main.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/22/31/7802231_20210304094913116_1_LARGE.jpg?w=243&amp;h=155&amp;t=1614880180</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>03-Dec-2020</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>C&amp;C 35</t>
+          <t>CS Traditional</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>47766</t>
+          <t>59,900</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>35' / 1970</t>
+          <t>36 ft / 1983</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Bowen Island British Columbia Canada, Outside United States</t>
+          <t>Duncan, British Columbia, Canada</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=88194</t>
+          <t>https://www.yachtworld.com/boats/1983/cs-traditional-3829708/</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/88194/main.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/90/68/7859068_20210424093042526_1_LARGE.jpg?w=243&amp;h=155&amp;t=1619466808</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>11-Sep-2020</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>C &amp; C 34</t>
+          <t>Sceptre 36</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>39200</t>
+          <t>30,000</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>34' / 1982</t>
+          <t>36 ft / 1980</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>British Columbia Canada, Outside United States</t>
+          <t>Vancouver, British Columbia, Canada</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=88023</t>
+          <t>https://www.yachtworld.com/boats/1980/sceptre-36-3752045/</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/88023/AmainShandyIIpicture.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/54/27/7725427_20210125122953265_1_LARGE.jpg?w=243&amp;h=155&amp;t=1611606594</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>03-Sep-2020</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mason </t>
+          <t>Catalina 36 Mk 1.5</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>70000</t>
+          <t>79,000</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>38' / 1977</t>
+          <t>36 ft / 1993</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Nanaimo British Columbia Canada, Outside United States</t>
+          <t>North Vancouver, British Columbia, Canada</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=87926</t>
+          <t>https://www.yachtworld.com/boats/1993/catalina-36-mk-1-5-3830048/</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/87926/main.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/28/2/7862802_20210510172520837_1_LARGE.jpg?w=243&amp;h=155&amp;t=1620692879</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>29-Aug-2020</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Southern Ocean Shipyards Van De Stadt Rebel 41</t>
+          <t>Custom Brent Swain 36</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>62299</t>
+          <t>55,000</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>41' / 1968</t>
+          <t>36 ft / 2006</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Sidney British Columbia Canada, Outside United States</t>
+          <t>Comox, British Columbia, Canada</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=81404</t>
+          <t>https://www.yachtworld.com/boats/2006/custom-brent-swain-36-3748255/</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/81404/061708024.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/91/82/7709182_20210124115659948_1_LARGE.jpg?w=243&amp;h=155&amp;t=1611531279</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>24-Jul-2019</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Sparkman &amp; Stephens custom IOR 3/4 tonner</t>
+          <t>Catalina MK I</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>56000</t>
+          <t>73,500</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>35' / 1977</t>
+          <t>36 ft / 1987</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Lund British Columbia, Outside United States</t>
+          <t>West Vancouver, British Columbia, Canada</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=78375</t>
+          <t>https://www.yachtworld.com/boats/1987/catalina-mk-i-3839829/</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/78375/main.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/89/52/7898952_20210527111727056_1_LARGE.jpg?w=243&amp;h=155&amp;t=1622139591</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>07-Mar-2019</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>CE Ryder 37 Ft Gillmer Custom Ketch</t>
+          <t>Endurance 35</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>91000</t>
+          <t>39,900</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>37' / 1977</t>
+          <t>35 ft / 1975</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>SALT SPRING ISLAND British Columbia, Outside United States</t>
+          <t>Van Anda, British Columbia, Canada</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=71739</t>
+          <t>https://www.yachtworld.com/boats/1975/endurance-35-3828218/</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/71739/06D4DE95-CBAC-47BC-8636-5B208C4A50BC.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/71/25/7857125_20210420083020844_1_LARGE.jpg?w=243&amp;h=155&amp;t=1618932621</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>29-Mar-2018</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Gulfstar 47 Sailmaster Ketch</t>
+          <t>Columbia 351</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>105000</t>
+          <t>49,900</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>47' / 1980</t>
+          <t>35 ft / 1980</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Oak Harbor, Washington</t>
+          <t>Vancouver, British Columbia, Canada</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=91214</t>
+          <t>https://www.yachtworld.com/boats/1980/columbia-351-3823490/</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/91214/00r0r_gCd8Dg3lDk4z_0CI0pO_1200x900.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/16/15/7841615_20210403102706893_1_LARGE.jpg?w=376&amp;h=253&amp;t=1617471019</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>18-May-2021</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Bavaria 36 Sloop</t>
+          <t>C&amp;C 35</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>105000</t>
+          <t>30,000</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>36' / 2003</t>
+          <t>35 ft / 1970</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Semiahmoo, Washington</t>
+          <t>Bowen Island, British Columbia, Canada</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=91212</t>
+          <t>https://www.yachtworld.com/boats/1970/c-c-35-3713274/</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/91212/main.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/48/24/7584824_20200910105952841_1_LARGE.jpg?w=243&amp;h=155&amp;t=1599761488</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>18-May-2021</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Catalina 42</t>
+          <t>Sailboat Magellan M35</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>115499</t>
+          <t>59,500</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>42' / 1991</t>
+          <t>35 ft / 1965</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Blaine, Washington</t>
+          <t>Victoria, British Columbia, Canada</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=90399</t>
+          <t>https://www.yachtworld.com/boats/1965/sailboat-magellan-m35-3530381/</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/90399/main.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/98/73/7049873_20201223110457021_1_LARGE.jpg?w=376&amp;h=253&amp;t=1608750318</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>24-Mar-2021</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Pearson P35</t>
+          <t>J Boats J/35c</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>29399</t>
+          <t>94,900</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>35' / 1973</t>
+          <t>35 ft / 1992</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Anacortes, Washington</t>
+          <t>Vancouver, British Columbia, Canada</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=90101</t>
+          <t>https://www.yachtworld.com/boats/1992/j-boats-j-35c-3826587/</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/90101/main.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/13/19/7851319_20210414122535460_1_LARGE.jpg?w=243&amp;h=155&amp;t=1618582150</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>28-Feb-2021</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Columbia 41 Center Cockpit</t>
+          <t>Pearson 35 Pearson</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>29399</t>
+          <t>47,000</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>41' / 1973</t>
+          <t>35 ft / 1974</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Twisp, Washington</t>
+          <t>Vancouver, British Columbia, Canada</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=90100</t>
+          <t>https://www.yachtworld.com/boats/1974/pearson-35-pearson-3739074/</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/90100/main.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/55/48/7675548_20201208094027370_1_LARGE.jpg?w=243&amp;h=155&amp;t=1607449228</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>28-Feb-2021</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Alsberg Express</t>
+          <t>True North 34</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>67200</t>
+          <t>55,000</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>34' / 1986</t>
+          <t>34 ft / 1979</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>San Juan Island, Washington</t>
+          <t>Nanaimo, British Columbia, Canada</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=90086</t>
+          <t>https://www.yachtworld.com/boats/1979/true-north-34-3828814/</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/90086/IMG_06261.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/77/20/7857720_20210420163244880_1_LARGE.jpg?w=243&amp;h=155&amp;t=1621441799</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>27-Feb-2021</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>SOLD---Columbia Morgan--SOLD Custom 38</t>
+          <t>Custom North Sea 34 Pilothouse</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>62999</t>
+          <t>39,500</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>38' / 1966</t>
+          <t>34 ft / 1981</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Seattle, Washington</t>
+          <t>Vancouver, British Columbia, Canada</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=89961</t>
+          <t>https://www.yachtworld.com/boats/1981/custom-north-sea-34-pilothouse-3831830/</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/89961/main.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/80/19/7868019_20210501174039763_1_LARGE.jpg?w=243&amp;h=155&amp;t=1619916040</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>15-Feb-2021</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Nordic Esprit 37</t>
+          <t>Hughes 48 Yawl</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>110600</t>
+          <t>94,722</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>37' / 1978</t>
+          <t>48 ft / 1971</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Anacortes, Washington</t>
+          <t>Sequim, Washington, United States</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=89629</t>
+          <t>https://www.yachtworld.com/boats/1971/hughes-48-yawl-3697224/</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/89629/main.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/48/82/7534882_20200727082526205_1_LARGE.jpg?w=376&amp;h=253&amp;t=1595863720</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>08-Apr-2021</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Custom Custom Cutter</t>
+          <t>Gulfstar 47 Sailmaster Ketch</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>54600</t>
+          <t>90,498</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>41' / 1985</t>
+          <t>47 ft / 1980</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Bellingham, Washington</t>
+          <t>Oak Harbor, Washington, United States</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=89521</t>
+          <t>https://www.yachtworld.com/boats/1980/gulfstar-47-sailmaster-ketch-3818377/</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/89521/main.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/68/47/7826847_20210318164237374_1_LARGE.jpg?w=243&amp;h=155&amp;t=1616111288</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>09-Jan-2021</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Carroll Marine 1D35</t>
+          <t>Liberty 458</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>62999</t>
+          <t>118,251</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>35' / 1999</t>
+          <t>45 ft / 1983</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Bellingham, Washington</t>
+          <t>Anacortes, Washington, United States</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=89129</t>
+          <t>https://www.yachtworld.com/boats/1983/liberty-458-3717142/</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/89129/main.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/64/99/7596499_20200921154107946_1_LARGE.jpg?w=243&amp;h=155&amp;t=1600728068</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>24-Nov-2020</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Beneteau First 435</t>
+          <t>Hardin 45 XL</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>93100</t>
+          <t>65,159</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>43.5' / 1985</t>
+          <t>45 ft / 1983</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Port Orchard, Washington</t>
+          <t>Anacortes, Washington, United States</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=88586</t>
+          <t>https://www.yachtworld.com/boats/1983/hardin-45-xl-3730295/</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/88586/main.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/24/69/7642469_20201030162810856_1_LARGE.jpg?w=243&amp;h=155&amp;t=1604100505</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>06-Oct-2020</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Pearson Pearson Countess</t>
+          <t>Frers 45 GP</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>57399</t>
+          <t>66,365</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>44' 6' / 1966</t>
+          <t>45 ft / 1983</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Gig Harbor, Washington</t>
+          <t>Olympia, Washington, United States</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=88414</t>
+          <t>https://www.yachtworld.com/boats/1983/frers-45-gp-3832091/</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/88414/main.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/90/6/7869006_20210503142054460_1_LARGE.jpg?w=243&amp;h=155&amp;t=1620076965</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>24-Sep-2020</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Bob Harris trimaran 40 trimaran</t>
+          <t>Bruce Roberts 44</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>62999</t>
+          <t>59,729</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>41' / 1994</t>
+          <t>44 ft / 1985</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Seattle, Washington</t>
+          <t>Port Townsend, Washington, United States</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=88373</t>
+          <t>https://www.yachtworld.com/boats/1985/bruce-roberts-44-3659582/</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/88373/main.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/52/74/7385274_20200304163849088_1_LARGE.jpg?w=376&amp;h=253&amp;t=1583368788</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>21-Sep-2020</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Beneteau First 42</t>
+          <t>Bruce Roberts Pilothouse 44</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>97860</t>
+          <t>46,456</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>42' / 1983</t>
+          <t>44 ft / 1993</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Port Orchard, Washington</t>
+          <t>Anacortes, Washington, United States</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=88195</t>
+          <t>https://www.yachtworld.com/boats/1993/bruce-roberts-pilothouse-44-2998071/</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/88195/main.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/79/66/5907966_20160816181335864_1_LARGE.jpg?w=376&amp;h=253&amp;t=1471396415</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>11-Sep-2020</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>True North 34 cutter True North 34 cutter</t>
+          <t>Spencer 44 Center Cockpit</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>118999</t>
+          <t>71,795</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>34' / 1983</t>
+          <t>44 ft / 1974</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>BELLINGHAM, Washington</t>
+          <t>Seattle, Washington, United States</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=87963</t>
+          <t>https://www.yachtworld.com/boats/1974/spencer-44-center-cockpit-3829912/</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/87963/main.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/7/93/7520793_20200721135747683_1_LARGE.jpg?w=376&amp;h=253&amp;t=1617656760</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>31-Aug-2020</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Columbia 36 Yawl</t>
+          <t>Spencer 1330 Center Cockpit 44</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>118999</t>
+          <t>95,325</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>36' / racer/cruiser</t>
+          <t>44 ft / 1979</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>$9,500</t>
+          <t>Anacortes, Washington, United States</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=87524</t>
+          <t>https://www.yachtworld.com/boats/1979/spencer-1330-center-cockpit-44-3661671/</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/87524/main.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/79/18/7397918_20200710134606094_1_LARGE.jpg?w=376&amp;h=253&amp;t=1594413978</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>12-Aug-2020</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Explorer 45 45 Cutter</t>
+          <t>C&amp;C 44</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>62859</t>
+          <t>89,292</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>45' / 1978</t>
+          <t>44 ft / 1987</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Gig Harbor, Washington</t>
+          <t>Seattle, Washington, United States</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=87494</t>
+          <t>https://www.yachtworld.com/boats/1987/c-c-44-3698800/</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/87494/main.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/95/2/7539502_20200822130053577_1_LARGE.jpg?w=243&amp;h=155&amp;t=1598126585</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>10-Aug-2020</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Ericson Atomic 4 rebuilt gas engine 30 HP gas</t>
+          <t>Beneteau First 435</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>5600</t>
+          <t>80,242</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>35' / 1978</t>
+          <t>44 ft / 1985</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Everett, Washington</t>
+          <t>Port Orchard, Washington, United States</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=87410</t>
+          <t>https://www.yachtworld.com/boats/1985/beneteau-first-435-3740024/</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/87410/A-4rebuiltIMG_0830.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/19/26/7611926_20201002130845833_1_LARGE.jpg?w=243&amp;h=155&amp;t=1601669327</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>06-Aug-2020</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Formosa Ketch</t>
+          <t>Wauquiez Amphritrite</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>105000</t>
+          <t>119,458</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>47' / 1976</t>
+          <t>43 ft / 1982</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Tacoma, Washington</t>
+          <t>Poulsbo, Washington, United States</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=86975</t>
+          <t>https://www.yachtworld.com/boats/1982/wauquiez-amphritrite-3824440/</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/86975/1.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/50/41/7845041_20210407135404400_1_LARGE.jpg?w=243&amp;h=155&amp;t=1617829192</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>16-Jul-2020</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Islander Freeport 41</t>
+          <t>Irwin 43 Mark III</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>83300</t>
+          <t>114,631</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>41' / 1977</t>
+          <t>43 ft / 1987</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Anacortes, Washington</t>
+          <t>Anacortes, Washington, United States</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=86574</t>
+          <t>https://www.yachtworld.com/boats/1987/irwin-43-mark-iii-3740572/</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/86574/main.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/35/79/7653579_20201118153646549_1_LARGE.jpg?w=243&amp;h=155&amp;t=1605742740</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>27-Jun-2020</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>C&amp;C 36</t>
+          <t>Beneteau First 42</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>55300</t>
+          <t>87,964</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>36' / 1981</t>
+          <t>42 ft / 1983</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Oak Harbor, Washington</t>
+          <t>Port Orchard, Washington, United States</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=86113</t>
+          <t>https://www.yachtworld.com/boats/1983/beneteau-first-42-3740029/</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/86113/IMG_0335.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/1/30/7560130_20200818160720670_1_LARGE.jpg?w=243&amp;h=155&amp;t=1597792041</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>31-May-2020</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Beneteau 390</t>
+          <t>Islander Freeport 41</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>77000</t>
+          <t>71,795</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>39' / 1988</t>
+          <t>41 ft / 1977</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Seattle shilshole marina, Washington</t>
+          <t>Anacortes, Washington, United States</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=85309</t>
+          <t>https://www.yachtworld.com/boats/1977/islander-freeport-41-3595242/</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/85309/main.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/31/86/7243186_20191007144120101_1_LARGE.jpg?w=243&amp;h=155&amp;t=1617840983</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>26-Mar-2020</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Columbia 36</t>
+          <t>Morgan Out Island 41</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>23800</t>
+          <t>87,494</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>35'9' / 1968</t>
+          <t>41 ft / 1982</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Gig Harbor, Washington</t>
+          <t>Everett, Washington, United States</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=85227</t>
+          <t>https://www.yachtworld.com/boats/1982/morgan-out-island-41-3729946/</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/85227/main.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/97/84/7639784_20201028141058437_1_LARGE.jpg?w=243&amp;h=155&amp;t=1619469626</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>21-Mar-2020</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Jeanneau Melody</t>
+          <t>Fraser 41</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>53060</t>
+          <t>89,304</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>34' / 1977</t>
+          <t>41 ft / 1982</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Anacortes, Washington</t>
+          <t>La Conner, Washington, United States</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=83777</t>
+          <t>https://www.yachtworld.com/boats/1982/fraser-41-3715037/</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/83777/1.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/0/22/7590022_20200915123335811_1_LARGE.jpg?w=243&amp;h=155&amp;t=1600198417</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>06-Dec-2019</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Schock New York 36</t>
+          <t>Morgan 41 Out Island</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>33598</t>
+          <t>76,029</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>36' / 1982</t>
+          <t>41 ft / 1981</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Kirkland, Washington</t>
+          <t>Bellingham, Washington, United States</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=83248</t>
+          <t>https://www.yachtworld.com/boats/1981/morgan-41-out-island-3712352/</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/83248/2.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/19/99/7581999_20200908102542480_1_LARGE.jpg?w=243&amp;h=155&amp;t=1606886805</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>25-Oct-2019</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Macgregor 36 catamaran</t>
+          <t>Custom Irving Sloop</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>33598</t>
+          <t>89,908</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>36' / cruiser</t>
+          <t>40 ft / 1947</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>$20,000</t>
+          <t>Port Townsend, Washington, United States</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=80041</t>
+          <t>https://www.yachtworld.com/boats/1947/custom-irving-sloop-3668155/</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/80041/Nepenthe1.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/53/33/7425333_20200410144116861_1_LARGE.jpg?w=376&amp;h=253&amp;t=1620163170</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>25-May-2019</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Kalik 40</t>
+          <t>Custom Frederick Amor 40</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>62299</t>
+          <t>77,236</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>40' / 1980</t>
+          <t>40 ft / 1980</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Olympia, Washington</t>
+          <t>Seattle, Washington, United States</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=78394</t>
+          <t>https://www.yachtworld.com/boats/1980/custom-frederick-amor-40-3654122/</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/78394/main.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/9/53/7370953_20200219085940991_1_LARGE.jpg?w=243&amp;h=155&amp;t=1582141925</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>08-Mar-2019</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>WECO - Ganley Yachts Steel 34 - Shadow 34</t>
+          <t>Mariner 40</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>54600</t>
+          <t>78,443</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>34' / 1984</t>
+          <t>40 ft / 1978</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Bellingham, Washington</t>
+          <t>Seattle, Washington, United States</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=76084</t>
+          <t>https://www.yachtworld.com/boats/1978/mariner-40-3810847/</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/76084/main.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/75/80/7717580_20210304181938225_1_LARGE.jpg?w=243&amp;h=155&amp;t=1614911344</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>03-Oct-2018</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Peterson 37 Ontario Ship Yards</t>
+          <t>C&amp;C 39</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>27300</t>
+          <t>39,825</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>37' / 1977</t>
+          <t>39 ft / 1972</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>ANACORTES, Washington</t>
+          <t>Everett, Washington, United States</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=75617</t>
+          <t>https://www.yachtworld.com/boats/1972/c-c-39-3827451/</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/75617/main.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/25/76/7852576_20210416125122666_1_LARGE.jpg?w=243&amp;h=155&amp;t=1618602990</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>06-Sep-2018</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Westsail 42 ketch</t>
+          <t>Motorsailer Wittholz Steel Pilothouse</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>72800</t>
+          <t>103,665</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>42' / 1974</t>
+          <t>39 ft / 1995</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Bellingham, Washington</t>
+          <t>Tacoma, Washington, United States</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=71643</t>
+          <t>https://www.yachtworld.com/boats/1995/motorsailer-wittholz-steel-pilothouse-3644222/</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/71643/main.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/50/85/7335085_20200118095825020_1_LARGE.jpg?w=243&amp;h=155&amp;t=1579496428</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>25-Mar-2018</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Capital Yachts Newport 41 Mk II</t>
+          <t>Custom Nanoose 39" Bill Garden Design</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>47600</t>
+          <t>83,270</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>41' / 1983</t>
+          <t>39 ft / 2004</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Portland, Oregon</t>
+          <t>Tacoma, Washington, United States</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=90788</t>
+          <t>https://www.yachtworld.com/boats/2004/custom-nanoose-39-bill-garden-design-3836114/</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/90788/main.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/77/43/7887743_20210516144201080_1_LARGE.jpg?w=243&amp;h=155&amp;t=1621201321</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>20-Apr-2021</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Pearson 34</t>
+          <t>Cavalier 39</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>30099</t>
+          <t>107,406</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>34' / 1984</t>
+          <t>39 ft / 1986</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Portland, Oregon</t>
+          <t>Anacortes, Washington, United States</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=84570</t>
+          <t>https://www.yachtworld.com/boats/1986/cavalier-39-3839560/</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/84570/main.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/6/63/7890663_20210526105712599_1_LARGE.jpg?w=243&amp;h=155&amp;t=1622051834</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>09-Feb-2020</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Jensen Marine Cal 36</t>
+          <t>Yorktown 39</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>23800</t>
+          <t>47,066</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>36' / 1966</t>
+          <t>39 ft / 1974</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Newport, Oregon</t>
+          <t>Everett, Washington, United States</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=81358</t>
+          <t>https://www.yachtworld.com/boats/1974/yorktown-39-3698812/</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/81358/main.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/55/3/6295503_20170716133135643_1_LARGE.jpg?w=243&amp;h=155&amp;t=1596129298</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>22-Jul-2019</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>CT 38</t>
+          <t>Fast Passage 39</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>62999</t>
+          <t>84,356</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>38' / 1986</t>
+          <t>39 ft / 1977</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Newport, Oregon</t>
+          <t>Seattle, Washington, United States</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=80306</t>
+          <t>https://www.yachtworld.com/boats/1977/fast-passage-39-3602671/</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/80306/main.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/33/79/7263379_0_210920200758_1.jpg?w=376&amp;h=253&amp;t=1621813628</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>05-Jun-2019</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Irwin Citation</t>
+          <t>Ericson 38-200</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>30799</t>
+          <t>82,063</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>34.25' / 1981</t>
+          <t>38 ft / 1988</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Isla Mujeres Mexico, Oregon</t>
+          <t>Anacortes, Washington, United States</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=77225</t>
+          <t>https://www.yachtworld.com/boats/1988/ericson-38-200-3827148/</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/77225/main.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/28/51/7852851_20210415204800869_1_LARGE.jpg?w=243&amp;h=155&amp;t=1618544934</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>14-Dec-2018</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>CHRIS CRAFT CARIBBEAN 35</t>
+          <t>Downeast Sloop 38</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>25900</t>
+          <t>39,704</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>35.1' / 1971</t>
+          <t>38 ft / 1976</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Charleston, Oregon</t>
+          <t>Kingston, Washington, United States</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=74909</t>
+          <t>https://www.yachtworld.com/boats/1976/downeast-sloop-38-3823578/</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/74909/main.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/91/92/7839192_20210408085202025_1_LARGE.jpg?w=243&amp;h=155&amp;t=1617897181</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>06-Aug-2018</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Gulfstar sail master</t>
+          <t>C&amp;C 38</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>118999</t>
+          <t>56,117</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>39' / 1981</t>
+          <t>38 ft / 1980</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>McCuddys Landing Marina 34326 Johnson Landing Rd Scappoose, Oregon</t>
+          <t>Anacortes, Washington, United States</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=73675</t>
+          <t>https://www.yachtworld.com/boats/1980/c-c-38-3679266/</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/73675/Boatatsail_edited.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/81/39/7468139_20200602115109913_1_LARGE.jpg?w=243&amp;h=155&amp;t=1591123871</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>17-Jun-2018</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ericson 34 x </t>
+          <t>C&amp;C 38</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>21000</t>
+          <t>56,109</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>33.9' / 1977</t>
+          <t>38 ft / 1980</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Portland, Oregon</t>
+          <t>Anacortes, Washington, United States</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=70731</t>
+          <t>https://www.yachtworld.com/boats/1980/c-c-38-3679266/</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/70731/main.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/81/39/7468139_20200602115109913_1_LARGE.jpg?w=243&amp;h=155&amp;t=1591123871</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>03-Feb-2018</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Alajuela 38</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>60,332</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>38 ft / 1977</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Olympia, Washington, United States</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>https://www.yachtworld.com/boats/1977/alajuela-38-3607384/</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>https://images.yachtworld.com/resize/1/64/73/7276473_20191107120706180_1_LARGE.jpg?w=376&amp;h=253&amp;t=1573157344</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Beneteau 381</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>105,581</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>38 ft / 1999</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Everett, Washington, United States</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>https://www.yachtworld.com/boats/1999/beneteau-381-3826961/</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>https://images.yachtworld.com/resize/1/13/6/7851306_20210414120735949_1_LARGE.jpg?w=243&amp;h=155&amp;t=1618427326</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>CT cruisers</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>63,832</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>38 ft / 1986</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Seattle, Washington, United States</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>https://www.yachtworld.com/boats/1986/ct-cruisers-3580484/</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>https://images.yachtworld.com/resize/1/6/52/7200652_20190831083816437_1_LARGE.jpg?w=243&amp;h=155&amp;t=1567265896</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Baltic 38DP</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>108,598</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>38 ft / 1983</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Seattle, Washington, United States</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>https://www.yachtworld.com/boats/1983/baltic-38dp-3823822/</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>https://images.yachtworld.com/resize/1/17/22/7841722_20210407112739357_1_LARGE.jpg?w=376&amp;h=253&amp;t=1617820105</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>CT 38</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>59,729</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>38 ft / 1983</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Seattle, Washington, United States</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>https://www.yachtworld.com/boats/1983/ct-38-3707663/</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>https://images.yachtworld.com/resize/1/62/5/7566205_20210423134319958_1_LARGE.jpg?w=243&amp;h=155&amp;t=1619210995</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Catalina 38</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>36,079</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>38 ft / 1984</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Olympia, Washington, United States</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>https://www.yachtworld.com/boats/1984/catalina-38-3750382/</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>https://images.yachtworld.com/resize/1/49/7/7714907_20210118142236720_1_LARGE.jpg?w=243&amp;h=155&amp;t=1611008622</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Hunter 386</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>96,411</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>38 ft / 2003</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Seattle, Washington, United States</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>https://www.yachtworld.com/boats/2003/hunter-386-3833227/</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>https://images.yachtworld.com/resize/1/21/41/7872141_20210506105852273_1_LARGE.jpg?w=243&amp;h=155&amp;t=1620323940</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>C&amp;C MKIII</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>62,746</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>38 ft / 1986</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Seattle, Washington, United States</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>https://www.yachtworld.com/boats/1986/c-c-mkiii-3839117/</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>https://images.yachtworld.com/resize/1/59/30/7895930_20210527115408354_1_LARGE.jpg?w=243&amp;h=155&amp;t=1622141827</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Banjer 37 Pilothouse Motor Sailer Ketch</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>90,498</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>37 ft / 1970</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Anacortes, Washington, United States</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>https://www.yachtworld.com/boats/1970/banjer-37-pilothouse-motor-sailer-ketch-3815310/</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>https://images.yachtworld.com/resize/1/92/58/7819258_20210413130918835_1_LARGE.jpg?w=243&amp;h=155&amp;t=1618344570</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Cooper Seabird</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>56,712</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>37 ft / 1978</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Seattle, Washington, United States</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>https://www.yachtworld.com/boats/1978/cooper-seabird-3833949/</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>https://images.yachtworld.com/resize/1/41/60/7874160_20210508140726078_1_LARGE.jpg?w=243&amp;h=155&amp;t=1620512374</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Challenger Talisman 37</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>47,662</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>37 ft / 1980</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Port Townsend, Washington, United States</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>https://www.yachtworld.com/boats/1980/challenger-talisman-37-3835263/</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>https://images.yachtworld.com/resize/1/29/96/7882996_20210511120633452_1_LARGE.jpg?w=243&amp;h=155&amp;t=1620760579</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Aluminum Cruiser 37</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>107,391</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>37 ft / 1993</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Oak Harbor, Washington, United States</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>https://www.yachtworld.com/boats/1993/aluminum-cruiser-37-3829791/</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>https://images.yachtworld.com/resize/1/50/83/7835083_20210327175725911_1_LARGE.jpg?w=243&amp;h=155&amp;t=1616893420</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Pacific Seacraft 37</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>103,168</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>37 ft / 1995</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Seattle, Washington, United States</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>https://www.yachtworld.com/boats/1995/pacific-seacraft-37-3823371/</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>https://images.yachtworld.com/resize/1/41/11/6964111_20190121162513033_1_LARGE.jpg?w=243&amp;h=155&amp;t=1605139986</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Tayana Tayana 37 Ct</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>102,565</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>37 ft / 1983</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Anacortes, Washington, United States</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>https://www.yachtworld.com/boats/1983/tayana-tayana-37-ct-3829795/</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>https://images.yachtworld.com/resize/1/92/16/7069216_20190507111718943_1_LARGE.jpg?w=376&amp;h=253&amp;t=1618667400</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Bavaria 36</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>90,498</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>36 ft / 2003</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Blaine, Washington, United States</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>https://www.yachtworld.com/boats/2003/bavaria-36-3822961/</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>https://images.yachtworld.com/resize/1/99/24/7839924_20210403204415456_1_LARGE.jpg?w=243&amp;h=155&amp;t=1617509999</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>C&amp;C 36</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>53,092</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>36 ft / 1978</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Anacortes, Washington, United States</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>https://www.yachtworld.com/boats/1978/c-c-36-3505548/</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>https://images.yachtworld.com/resize/1/97/61/6969761_20190130203320262_1_LARGE.jpg?w=243&amp;h=155&amp;t=1548909201</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Freedom 36</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>69,382</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>36 ft / 1986</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Anacortes, Washington, United States</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>https://www.yachtworld.com/boats/1986/freedom-36-3838352/</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>https://images.yachtworld.com/resize/1/37/61/7893761_20210522121322339_1_LARGE.jpg?w=243&amp;h=155&amp;t=1621710803</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Cascade 36</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>54,178</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>36 ft / 1980</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Olympia, Washington, United States</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>https://www.yachtworld.com/boats/1980/cascade-36-3730454/</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>https://images.yachtworld.com/resize/1/31/37/7643137_20210225130358963_1_LARGE.jpg?w=243&amp;h=155&amp;t=1614287039</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>C&amp;C 34 Plus</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>98,945</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>36 ft / 1991</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Vashon, Washington, United States</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>https://www.yachtworld.com/boats/1991/c-c-34-plus-3830617/</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>https://images.yachtworld.com/resize/1/37/68/7863768_20210427113955658_1_LARGE.jpg?w=376&amp;h=253&amp;t=1619569023</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Sweden Yachts 36 Sloop</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>90,498</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>36 ft / 1987</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Seattle, Washington, United States</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>https://www.yachtworld.com/boats/1987/sweden-yachts-36-sloop-3838981/</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>https://images.yachtworld.com/resize/1/11/46/7881146_20210512142815909_1_LARGE.jpg?w=376&amp;h=253&amp;t=1620854932</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Islander Freeport 36</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>101,962</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>36 ft / 1979</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Seattle, Washington, United States</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>https://www.yachtworld.com/boats/1979/islander-freeport-36-3824741/</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>https://images.yachtworld.com/resize/1/82/9/7658209_20201114135123663_1_LARGE.jpg?w=243&amp;h=155&amp;t=1617906130</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Pearson 36-2 Sloop</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>69,985</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>36 ft / 1986</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Anacortes, Washington, United States</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>https://www.yachtworld.com/boats/1986/pearson-36-2-sloop-3831837/</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>https://images.yachtworld.com/resize/1/64/57/7866457_20210504103539539_1_LARGE.jpg?w=243&amp;h=155&amp;t=1620149775</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Custom Steel Cutter</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>51,282</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>36 ft / 1985</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Port Townsend, Washington, United States</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>https://www.yachtworld.com/boats/1985/custom-steel-cutter-3684184/</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>https://images.yachtworld.com/resize/1/52/28/7415228_20200616070834223_1_LARGE.jpg?w=243&amp;h=155&amp;t=1592317011</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Custom Brent Swain 36</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>83,259</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>36 ft / 2001</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Everett, Washington, United States</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>https://www.yachtworld.com/boats/2001/custom-brent-swain-36-3545880/</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>https://images.yachtworld.com/resize/1/15/92/6341592_20170819133911419_1_LARGE.jpg?w=243&amp;h=155&amp;t=1559079913</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Jeanneau Sun Odyssey 36</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>61,539</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>36 ft / 1990</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Anacortes, Washington, United States</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>https://www.yachtworld.com/boats/1990/jeanneau-sun-odyssey-36-3742085/</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>https://images.yachtworld.com/resize/1/81/97/7678197_20201211123709095_1_LARGE.jpg?w=243&amp;h=155&amp;t=1607719492</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Union 36 Cutter</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>83,862</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>36 ft / 1981</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Seattle, Washington, United States</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>https://www.yachtworld.com/boats/1981/union-36-cutter-3804673/</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>https://images.yachtworld.com/resize/1/47/72/7794772_20210302111746135_1_LARGE.jpg?w=243&amp;h=155&amp;t=1614712681</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Carroll Marine 1D35</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>83,259</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>35 ft / 1999</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Seattle, Washington, United States</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>https://www.yachtworld.com/boats/1999/carroll-marine-1d35-3715581/</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>https://images.yachtworld.com/resize/1/11/69/7591169_20200921164142998_1_LARGE.jpg?w=243&amp;h=155&amp;t=1600731855</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Trident Voyager Pilothouse</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>66,245</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>35 ft / 1978</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Vashon, Washington, United States</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>https://www.yachtworld.com/boats/1978/trident-voyager-pilothouse-3529925/</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>https://images.yachtworld.com/resize/1/48/84/7044884_20190410121437649_1_LARGE.jpg?w=376&amp;h=253&amp;t=1555178544</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Tanzer 10.5</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>45,249</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>35 ft / 1984</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Everett, Washington, United States</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>https://www.yachtworld.com/boats/1984/tanzer-10-5-3586667/</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>https://images.yachtworld.com/resize/1/12/24/7221224_20190917140633693_1_LARGE.jpg?w=243&amp;h=155&amp;t=1568759014</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Carroll Marine One Design 35 1D35</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>71,202</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>35 ft / 1999</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Seattle, Washington, United States</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>https://www.yachtworld.com/boats/1999/carroll-marine-one-design-35-1d35-3821262/</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>https://images.yachtworld.com/resize/1/7/95/7830795_20210326115306605_1_LARGE.jpg?w=376&amp;h=253&amp;t=1616784798</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Beneteau Oceanis 351</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>72,288</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>35 ft / 1995</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Seattle, Washington, United States</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>https://www.yachtworld.com/boats/1995/beneteau-oceanis-351-3838678/</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>https://images.yachtworld.com/resize/1/40/53/7884053_20210523093048110_1_LARGE.jpg?w=243&amp;h=155&amp;t=1621787494</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Sparkman &amp; Stephens K35</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>59,737</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>35 ft / 1957</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Port Townsend, Washington, United States</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>https://www.yachtworld.com/boats/1957/sparkman-stephens-k35-3672181/</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>https://images.yachtworld.com/resize/1/80/84/7378084_20200227173011938_1_LARGE.jpg?w=243&amp;h=155&amp;t=1582853451</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Hunter Legend 35.5</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>45,256</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>35 ft / 1987</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Olympia, Washington, United States</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>https://www.yachtworld.com/boats/1987/hunter-legend-35-5-3754450/</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>https://images.yachtworld.com/resize/1/24/66/7732466_20210203102149297_1_LARGE.jpg?w=243&amp;h=155&amp;t=1612376535</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Catalina 350</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>117,664</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>35 ft / 2003</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Seattle, Washington, United States</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>https://www.yachtworld.com/boats/2003/catalina-350-3818704/</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>https://images.yachtworld.com/resize/1/44/47/7824447_20210316135442842_1_LARGE.jpg?w=376&amp;h=253&amp;t=1618611927</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Ta Shing Baba 35</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>83,874</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>35 ft / 1985</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Seattle, Washington, United States</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>https://www.yachtworld.com/boats/1985/ta-shing-baba-35-3733007/</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>https://images.yachtworld.com/resize/1/23/78/7582378_20210421153147401_1_LARGE.jpg?w=376&amp;h=253&amp;t=1619044669</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Catalina 34</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>48,152</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>34 ft / 1988</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Des Moines, Washington, United States</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>https://www.yachtworld.com/boats/1988/catalina-34-3833962/</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>https://images.yachtworld.com/resize/1/44/64/7874464_20210509163808718_1_LARGE.jpg?w=243&amp;h=155&amp;t=1620603502</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Chris White Hammerhead</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>59,737</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>34 ft / 1999</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Poulsbo, Washington, United States</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>https://www.yachtworld.com/boats/1999/chris-white-hammerhead-3834984/</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>https://images.yachtworld.com/resize/1/40/47/7884047_20210512113643786_1_LARGE.jpg?w=243&amp;h=155&amp;t=1620844605</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Olson Olson 34</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>65,771</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>34 ft / 1990</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Seattle, Washington, United States</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>https://www.yachtworld.com/boats/1990/olson-olson-34-3824021/</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>https://images.yachtworld.com/resize/1/26/22/7842622_20210405135959241_1_LARGE.jpg?w=376&amp;h=253&amp;t=1617656821</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Pacific Seacraft 34</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>90,390</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>34 ft / 1985</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Seattle, Washington, United States</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>https://www.yachtworld.com/boats/1985/pacific-seacraft-34-3666768/</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>https://images.yachtworld.com/resize/1/31/6/7373106_20200330110728576_1_LARGE.jpg?w=243&amp;h=155&amp;t=1585592887</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Huntingford True North 34 Cutter</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>47,669</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>34 ft / 1974</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Olympia, Washington, United States</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>https://www.yachtworld.com/boats/1974/huntingford-true-north-34-cutter-3829644/</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>https://images.yachtworld.com/resize/1/16/48/7861648_20210424091857309_1_LARGE.jpg?w=243&amp;h=155&amp;t=1619712910</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Catalina 42</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>102,459</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>42 ft / 1989</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Portland, Oregon, United States</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>https://www.yachtworld.com/boats/1989/catalina-42-3833892/</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>https://images.yachtworld.com/resize/1/42/60/7874260_20210508173830165_1_LARGE.jpg?w=243&amp;h=155&amp;t=1620521230</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Bruce Roberts 40</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>72,408</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>40 ft / 1986</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Portland, Oregon, United States</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>https://www.yachtworld.com/boats/1986/bruce-roberts-40-3750985/</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>https://images.yachtworld.com/resize/1/74/64/4767464_20140722170608637_1_LARGE.jpg?w=243&amp;h=155&amp;t=1611189182</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Fast Passage 39</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>99,562</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>39 ft / 1979</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Portland, Oregon, United States</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>https://www.yachtworld.com/boats/1979/fast-passage-39-3573138/</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>https://images.yachtworld.com/resize/1/61/95/7166195_20190807162530384_1_LARGE.jpg?w=243&amp;h=155&amp;t=1565220567</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Schock 35</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>36,203</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>35 ft / 1984</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Portland, Oregon, United States</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>https://www.yachtworld.com/boats/1984/schock-35-2999387/</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>https://images.yachtworld.com/resize/1/5/88/5910588_20160819115920487_1_LARGE.jpg?w=243&amp;h=155&amp;t=1471633185</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Shuttleworth Open 35</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>119,475</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>35 ft / 1995</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Saint Helens, Oregon, United States</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>https://www.yachtworld.com/boats/1995/shuttleworth-open-35-3731711/</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>https://images.yachtworld.com/resize/1/71/28/7647128_20201104141538014_1_LARGE.jpg?w=376&amp;h=253&amp;t=1604528572</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Custom Alsea Bay 34</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>36,084</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>34 ft / 1985</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Portland, Oregon, United States</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>https://www.yachtworld.com/boats/1985/custom-alsea-bay-34-3488780/</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>https://images.yachtworld.com/resize/1/4/20/6870420_20181127154937864_1_LARGE.jpg?w=243&amp;h=155&amp;t=1543363192</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/search_boatlisting/output/boatlist.xlsx
+++ b/search_boatlisting/output/boatlist.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -429,7 +429,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>May 28, 2021 08:24 Currency=CAD</t>
+          <t>May 28, 2021 14:33 Currency=CAD</t>
         </is>
       </c>
     </row>
@@ -478,1976 +478,2852 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Cavalier Cavalier 39</t>
+          <t>Custom Marcos MC39</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>55486</t>
+          <t>89,900</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>39' / 1982</t>
+          <t>45 ft / 1981</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>La Paz BCS Mexico, Outside United States</t>
+          <t>Squamish, British Columbia, Canada</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=87011</t>
+          <t>https://www.yachtworld.com/boats/1981/custom-marcos-mc39-3749972/</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/87011/main.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/72/93/7717293_20210116084041955_1_LARGE.jpg?w=243&amp;h=155&amp;t=1610815243</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>17-Jul-2020</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Ericson 36 MK 111</t>
+          <t>Jeanneau Sun Magic 44</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>39751</t>
+          <t>95,000</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>36' / 1986</t>
+          <t>44 ft / 1990</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Vancouver BC Canada, Outside United States</t>
+          <t>Nanaimo, British Columbia, Canada</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=82942</t>
+          <t>https://www.yachtworld.com/boats/1990/jeanneau-sun-magic-44-3833970/</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/82942/main.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/60/93/7866093_20210508204726666_1_LARGE.jpg?w=243&amp;h=155&amp;t=1620536845</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>08-Oct-2019</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Columbia Columbia 34 mk II</t>
+          <t>Hunter 43</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>18219</t>
+          <t>84,950</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>34' / 1972</t>
+          <t>43 ft / 1992</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Galiano Island BC, Outside United States</t>
+          <t>Pender Island, British Columbia, Canada</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=74147</t>
+          <t>https://www.yachtworld.com/boats/1992/hunter-43-3828806/</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/74147/main.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/89/29/7858929_20210421152649836_1_LARGE.jpg?w=243&amp;h=155&amp;t=1619044068</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>06-Jul-2018</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Alubat OVNI 385</t>
+          <t>Maple Leaf 42</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>90766</t>
+          <t>89,000</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>40' / 1997</t>
+          <t>42 ft / 1977</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Netherland Antilles ABC Islands, Outside United States</t>
+          <t>Vancouver, British Columbia, Canada</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=71112</t>
+          <t>https://www.yachtworld.com/boats/1977/maple-leaf-42-3823746/</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/71112/main.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/7/79/7820779_20210313123628007_1_LARGE.jpg?w=243&amp;h=155&amp;t=1615668773</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>26-Feb-2018</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Pearson 35</t>
+          <t>Sloop Radford R415 Expedition Yacht</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>90766</t>
+          <t>78,513</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>35' / 1974</t>
+          <t>41 ft / 2005</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>$36,383</t>
+          <t>Richmond, British Columbia, Canada</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=89196</t>
+          <t>https://www.yachtworld.com/boats/2005/sloop-radford-r415-expedition-yacht-3832034/</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/89196/main.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/89/63/7868963_20210503134810832_1_LARGE.jpg?w=243&amp;h=155&amp;t=1620074892</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>03-Dec-2020</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Hunter 38</t>
+          <t>Beneteau First 405</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>90766</t>
+          <t>79,400</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>38' / fiberglass  monohull</t>
+          <t>41 ft / 1986</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>$36,383</t>
+          <t>Duncan, British Columbia, Canada</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=84325</t>
+          <t>https://www.yachtworld.com/boats/1986/beneteau-first-405-3824146/</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/84325/11.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/44/42/7834442_20210406144449154_1_LARGE.jpg?w=376&amp;h=253&amp;t=1617746273</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>23-Jan-2020</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Ericson 36 MK 111</t>
+          <t>O'Day 39</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>39751</t>
+          <t>79,900</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>36' / 1986</t>
+          <t>39 ft / 1983</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Vancouver BC Canada, Outside United States</t>
+          <t>Ladysmith, British Columbia, Canada</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=82942</t>
+          <t>https://www.yachtworld.com/boats/1983/o-day-39-3829693/</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/82942/main.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/10/68/7861068_20210423125208553_1_LARGE.jpg?w=243&amp;h=155&amp;t=1619296411</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>08-Oct-2019</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>J BOAT J35</t>
+          <t>Gulfstar 39 Sail Master</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>28985</t>
+          <t>72,900</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>35' / 1983</t>
+          <t>39 ft / 1981</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NANAIMO VANCOUVER ISLAND, Outside United States</t>
+          <t>Vancouver, British Columbia, Canada</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=81106</t>
+          <t>https://www.yachtworld.com/boats/1981/gulfstar-39-sail-master-3836785/</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/81106/main.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/2/60/7890260_20210518123637000_1_LARGE.jpg?w=243&amp;h=155&amp;t=1621367169</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>10-Jul-2019</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Fast Passage Tollycraft</t>
+          <t>Bruce Roberts 38</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>28985</t>
+          <t>60,000</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>39' / 1983</t>
+          <t>38 ft / 1994</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>$91,648</t>
+          <t>Duncan, British Columbia, Canada</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=91111</t>
+          <t>https://www.yachtworld.com/boats/1994/bruce-roberts-38-3717425/</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/91111/main.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/40/12/7594012_20200918134537218_1_LARGE.jpg?w=243&amp;h=155&amp;t=1600462097</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>11-May-2021</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>C&amp;C Tall Rig</t>
+          <t>C&amp;C 38</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>28985</t>
+          <t>55,000</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>40' / 1981</t>
+          <t>38 ft / 1977</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>$113,879</t>
+          <t>Parksville, British Columbia, Canada</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=90941</t>
+          <t>https://www.yachtworld.com/boats/1977/c-c-38-3838868/</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/90941/1.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/59/15/7895915_20210524140329702_1_LARGE.jpg?w=243&amp;h=155&amp;t=1621949866</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>30-Apr-2021</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Endurance 35</t>
+          <t>Rafiki 37 Cutter</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>26375</t>
+          <t>54,900</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>35' / 1975</t>
+          <t>37 ft / 1976</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Van Anda British Columbia Canada, Outside United States</t>
+          <t>Nanoose Bay, British Columbia, Canada</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=90778</t>
+          <t>https://www.yachtworld.com/boats/1976/rafiki-37-cutter-3837164/</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/90778/main.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/89/90/7888990_20210517110635025_1_LARGE.jpg?w=243&amp;h=155&amp;t=1621275611</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>20-Apr-2021</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Sceptre 36</t>
+          <t>Valiant 37 Cutter</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>26375</t>
+          <t>79,000</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>36' / motorsailer</t>
+          <t>37 ft / 1983</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Van Anda British Columbia Canada, Outside United States</t>
+          <t>Comox, British Columbia, Canada</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=89723</t>
+          <t>https://www.yachtworld.com/boats/1983/valiant-37-cutter-3828277/</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/89723/main.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/72/99/7857299_20210420101945396_1_LARGE.jpg?w=243&amp;h=155&amp;t=1618939186</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>27-Jan-2021</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Custom Brent Swain 36</t>
+          <t>Cooper Banner 37</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>26375</t>
+          <t>69,900</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>36' / 2006</t>
+          <t>37 ft / 1983</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>$60,000</t>
+          <t>Duncan, British Columbia, Canada</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=89532</t>
+          <t>https://www.yachtworld.com/boats/1983/cooper-banner-37-3621192/</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/89532/main.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/91/32/7319132_20210110175611993_1_LARGE.jpg?w=376&amp;h=253&amp;t=1610330583</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>10-Jan-2021</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Pearson 35</t>
+          <t>C&amp;C Sloop</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>26375</t>
+          <t>75,000</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>35' / 1974</t>
+          <t>37 ft / 1982</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>$36,383</t>
+          <t>North Vancouver, British Columbia, Canada</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=89196</t>
+          <t>https://www.yachtworld.com/boats/1982/c-c-sloop-3529213/</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/89196/main.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/62/14/7046214_20190411102147232_1_LARGE.jpg?w=243&amp;h=155&amp;t=1555003384</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>03-Dec-2020</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>C&amp;C 35</t>
+          <t>Tayana 37</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>28256</t>
+          <t>69,900</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>35' / 1970</t>
+          <t>37 ft / 1976</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Bowen Island British Columbia Canada, Outside United States</t>
+          <t>Ladysmith, British Columbia, Canada</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=88194</t>
+          <t>https://www.yachtworld.com/boats/1976/tayana-37-3593789/</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/88194/main.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/46/35/7234635_20191003161753241_1_LARGE.jpg?w=376&amp;h=253&amp;t=1570145006</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>11-Sep-2020</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>C &amp; C 34</t>
+          <t>Custom Truant Triad 370</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>23188</t>
+          <t>95,000</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>34' / 1982</t>
+          <t>37 ft / 2017</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>British Columbia Canada, Outside United States</t>
+          <t>Campbell River, British Columbia, Canada</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=88023</t>
+          <t>https://www.yachtworld.com/boats/2017/custom-truant-triad-370-3828026/</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/88023/AmainShandyIIpicture.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/0/96/7840096_20210412121702255_1_LARGE.jpg?w=243&amp;h=155&amp;t=1618255023</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>03-Sep-2020</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mason </t>
+          <t>Hunter Vision 36</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>41408</t>
+          <t>79,500</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>38' / 1977</t>
+          <t>36 ft / 1992</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Nanaimo British Columbia Canada, Outside United States</t>
+          <t>Vancouver, British Columbia, Canada</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=87926</t>
+          <t>https://www.yachtworld.com/boats/1992/hunter-vision-36-3815543/</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/87926/main.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/22/31/7802231_20210304094913116_1_LARGE.jpg?w=243&amp;h=155&amp;t=1614880180</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>29-Aug-2020</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Catalina MK II</t>
+          <t>CS Traditional</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>41408</t>
+          <t>59,900</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>36' / fiberglass  monohull</t>
+          <t>36 ft / 1983</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Nanaimo British Columbia Canada, Outside United States</t>
+          <t>Duncan, British Columbia, Canada</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=86275</t>
+          <t>https://www.yachtworld.com/boats/1983/cs-traditional-3829708/</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/86275/1.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/90/68/7859068_20210424093042526_1_LARGE.jpg?w=243&amp;h=155&amp;t=1619466808</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>10-Jun-2020</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Sparkman &amp; Stephens custom IOR 3/4 tonner</t>
+          <t>Catalina 36 Mk 1.5</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>33126</t>
+          <t>79,000</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>35' / 1977</t>
+          <t>36 ft / 1993</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Lund British Columbia, Outside United States</t>
+          <t>North Vancouver, British Columbia, Canada</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=78375</t>
+          <t>https://www.yachtworld.com/boats/1993/catalina-36-mk-1-5-3830048/</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/78375/main.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/28/2/7862802_20210510172520837_1_LARGE.jpg?w=243&amp;h=155&amp;t=1620692879</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>07-Mar-2019</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CE Ryder 37 Ft Gillmer Custom Ketch</t>
+          <t>Catalina MK I</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>53830</t>
+          <t>73,500</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>37' / 1977</t>
+          <t>36 ft / 1987</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>SALT SPRING ISLAND British Columbia, Outside United States</t>
+          <t>West Vancouver, British Columbia, Canada</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=71739</t>
+          <t>https://www.yachtworld.com/boats/1987/catalina-mk-i-3839829/</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/71739/06D4DE95-CBAC-47BC-8636-5B208C4A50BC.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/89/52/7898952_20210527111727056_1_LARGE.jpg?w=243&amp;h=155&amp;t=1622139591</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>29-Mar-2018</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Bavaria 36 Sloop</t>
+          <t>Custom Brent Swain 36</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>62112</t>
+          <t>55,000</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>36' / 2003</t>
+          <t>36 ft / 2006</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Semiahmoo, Washington</t>
+          <t>Comox, British Columbia, Canada</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=91212</t>
+          <t>https://www.yachtworld.com/boats/2006/custom-brent-swain-36-3748255/</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/91212/main.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/91/82/7709182_20210124115659948_1_LARGE.jpg?w=243&amp;h=155&amp;t=1611531279</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>18-May-2021</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Pearson P35</t>
+          <t>J Boats J/35c</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>17391</t>
+          <t>94,900</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>35' / 1973</t>
+          <t>35 ft / 1992</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Anacortes, Washington</t>
+          <t>Vancouver, British Columbia, Canada</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=90101</t>
+          <t>https://www.yachtworld.com/boats/1992/j-boats-j-35c-3826587/</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/90101/main.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/13/19/7851319_20210414122535460_1_LARGE.jpg?w=243&amp;h=155&amp;t=1618582150</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>28-Feb-2021</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Alsberg Express</t>
+          <t>Sailboat Magellan M35</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>39751</t>
+          <t>59,500</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>34' / 1986</t>
+          <t>35 ft / 1965</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>San Juan Island, Washington</t>
+          <t>Victoria, British Columbia, Canada</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=90086</t>
+          <t>https://www.yachtworld.com/boats/1965/sailboat-magellan-m35-3530381/</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/90086/IMG_06261.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/98/73/7049873_20201223110457021_1_LARGE.jpg?w=376&amp;h=253&amp;t=1608750318</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>27-Feb-2021</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SOLD---Columbia Morgan--SOLD Custom 38</t>
+          <t>True North 34</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>37267</t>
+          <t>55,000</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>38' / 1966</t>
+          <t>34 ft / 1979</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Seattle, Washington</t>
+          <t>Nanaimo, British Columbia, Canada</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=89961</t>
+          <t>https://www.yachtworld.com/boats/1979/true-north-34-3828814/</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/89961/main.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/77/20/7857720_20210420163244880_1_LARGE.jpg?w=243&amp;h=155&amp;t=1621441799</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>15-Feb-2021</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Nordic Esprit 37</t>
+          <t>Hughes 48 Yawl</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>65424</t>
+          <t>94,820</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>37' / 1978</t>
+          <t>48 ft / 1971</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Anacortes, Washington</t>
+          <t>Sequim, Washington, United States</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=89629</t>
+          <t>https://www.yachtworld.com/boats/1971/hughes-48-yawl-3697224/</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/89629/main.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/48/82/7534882_20200727082526205_1_LARGE.jpg?w=376&amp;h=253&amp;t=1595863720</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>08-Apr-2021</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Carroll Marine 1D35</t>
+          <t>Gulfstar 47 Sailmaster Ketch</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>37267</t>
+          <t>90,592</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>35' / 1999</t>
+          <t>47 ft / 1980</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Bellingham, Washington</t>
+          <t>Oak Harbor, Washington, United States</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=89129</t>
+          <t>https://www.yachtworld.com/boats/1980/gulfstar-47-sailmaster-ketch-3818377/</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/89129/main.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/68/47/7826847_20210318164237374_1_LARGE.jpg?w=243&amp;h=155&amp;t=1616111288</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>24-Nov-2020</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>True North 34 cutter True North 34 cutter</t>
+          <t>Hardin 45 XL</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>70393</t>
+          <t>65,227</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>34' / 1983</t>
+          <t>45 ft / 1983</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>BELLINGHAM, Washington</t>
+          <t>Anacortes, Washington, United States</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=87963</t>
+          <t>https://www.yachtworld.com/boats/1983/hardin-45-xl-3730295/</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/87963/main.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/24/69/7642469_20201030162810856_1_LARGE.jpg?w=243&amp;h=155&amp;t=1604100505</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>31-Aug-2020</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Columbia 36 Yawl</t>
+          <t>Frers 45 GP</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>70393</t>
+          <t>66,434</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>36' / racer/cruiser</t>
+          <t>45 ft / 1983</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>$9,500</t>
+          <t>Olympia, Washington, United States</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=87524</t>
+          <t>https://www.yachtworld.com/boats/1983/frers-45-gp-3832091/</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/87524/main.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/90/6/7869006_20210503142054460_1_LARGE.jpg?w=243&amp;h=155&amp;t=1620076965</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>12-Aug-2020</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Ericson Atomic 4 rebuilt gas engine 30 HP gas</t>
+          <t>Bruce Roberts 44</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>3313</t>
+          <t>59,791</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>35' / 1978</t>
+          <t>44 ft / 1985</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Everett, Washington</t>
+          <t>Port Townsend, Washington, United States</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=87410</t>
+          <t>https://www.yachtworld.com/boats/1985/bruce-roberts-44-3659582/</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/87410/A-4rebuiltIMG_0830.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/52/74/7385274_20200304163849088_1_LARGE.jpg?w=376&amp;h=253&amp;t=1583368788</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>06-Aug-2020</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>C&amp;C 36</t>
+          <t>Spencer 44 Center Cockpit</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>32712</t>
+          <t>71,870</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>36' / 1981</t>
+          <t>44 ft / 1974</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Oak Harbor, Washington</t>
+          <t>Seattle, Washington, United States</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=86113</t>
+          <t>https://www.yachtworld.com/boats/1974/spencer-44-center-cockpit-3829912/</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/86113/IMG_0335.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/7/93/7520793_20200721135747683_1_LARGE.jpg?w=376&amp;h=253&amp;t=1617656760</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>31-May-2020</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Beneteau 390</t>
+          <t>Spencer 1330 Center Cockpit 44</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>45548</t>
+          <t>95,424</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>39' / 1988</t>
+          <t>44 ft / 1979</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Seattle shilshole marina, Washington</t>
+          <t>Anacortes, Washington, United States</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=85309</t>
+          <t>https://www.yachtworld.com/boats/1979/spencer-1330-center-cockpit-44-3661671/</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/85309/main.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/79/18/7397918_20200710134606094_1_LARGE.jpg?w=376&amp;h=253&amp;t=1594413978</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>26-Mar-2020</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Columbia 36</t>
+          <t>C&amp;C 44</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>14079</t>
+          <t>89,385</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>35'9' / 1968</t>
+          <t>44 ft / 1987</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Gig Harbor, Washington</t>
+          <t>Seattle, Washington, United States</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=85227</t>
+          <t>https://www.yachtworld.com/boats/1987/c-c-44-3698800/</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/85227/main.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/95/2/7539502_20200822130053577_1_LARGE.jpg?w=243&amp;h=155&amp;t=1598126585</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>21-Mar-2020</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Jeanneau Melody</t>
+          <t>Beneteau First 435</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>31387</t>
+          <t>80,325</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>34' / 1977</t>
+          <t>44 ft / 1985</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Anacortes, Washington</t>
+          <t>Port Orchard, Washington, United States</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=83777</t>
+          <t>https://www.yachtworld.com/boats/1985/beneteau-first-435-3740024/</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/83777/1.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/19/26/7611926_20201002130845833_1_LARGE.jpg?w=243&amp;h=155&amp;t=1601669327</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>06-Dec-2019</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Schock New York 36</t>
+          <t>Beneteau First 42</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>19875</t>
+          <t>88,056</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>36' / 1982</t>
+          <t>42 ft / 1983</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Kirkland, Washington</t>
+          <t>Port Orchard, Washington, United States</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=83248</t>
+          <t>https://www.yachtworld.com/boats/1983/beneteau-first-42-3740029/</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/83248/2.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/1/30/7560130_20200818160720670_1_LARGE.jpg?w=243&amp;h=155&amp;t=1597792041</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>25-Oct-2019</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Macgregor 36 catamaran</t>
+          <t>Islander Freeport 41</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>19875</t>
+          <t>71,870</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>36' / cruiser</t>
+          <t>41 ft / 1977</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>$20,000</t>
+          <t>Anacortes, Washington, United States</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=80041</t>
+          <t>https://www.yachtworld.com/boats/1977/islander-freeport-41-3595242/</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/80041/Nepenthe1.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/31/86/7243186_20191007144120101_1_LARGE.jpg?w=243&amp;h=155&amp;t=1617840983</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>25-May-2019</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Kalik 40</t>
+          <t>Morgan Out Island 41</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>36853</t>
+          <t>87,573</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>40' / 1980</t>
+          <t>41 ft / 1982</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Olympia, Washington</t>
+          <t>Everett, Washington, United States</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=78394</t>
+          <t>https://www.yachtworld.com/boats/1982/morgan-out-island-41-3729946/</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/78394/main.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/97/84/7639784_20201028141058437_1_LARGE.jpg?w=243&amp;h=155&amp;t=1619469626</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>08-Mar-2019</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>WECO - Ganley Yachts Steel 34 - Shadow 34</t>
+          <t>Fraser 41</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>32298</t>
+          <t>89,385</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>34' / 1984</t>
+          <t>41 ft / 1982</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Bellingham, Washington</t>
+          <t>La Conner, Washington, United States</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=76084</t>
+          <t>https://www.yachtworld.com/boats/1982/fraser-41-3715037/</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/76084/main.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/0/22/7590022_20200915123335811_1_LARGE.jpg?w=243&amp;h=155&amp;t=1600198417</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>03-Oct-2018</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Peterson 37 Ontario Ship Yards</t>
+          <t>Morgan 41 Out Island</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>16149</t>
+          <t>76,098</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>37' / 1977</t>
+          <t>41 ft / 1981</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>ANACORTES, Washington</t>
+          <t>Bellingham, Washington, United States</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=75617</t>
+          <t>https://www.yachtworld.com/boats/1981/morgan-41-out-island-3712352/</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/75617/main.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/19/99/7581999_20200908102542480_1_LARGE.jpg?w=243&amp;h=155&amp;t=1606886805</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>06-Sep-2018</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Hunter e33</t>
+          <t>Custom Frederick Amor 40</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>86956</t>
+          <t>77,306</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>33.5' / 2012</t>
+          <t>40 ft / 1980</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Blaine, Washington</t>
+          <t>Seattle, Washington, United States</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=71883</t>
+          <t>https://www.yachtworld.com/boats/1980/custom-frederick-amor-40-3654122/</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/71883/20180317_120623.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/9/53/7370953_20200219085940991_1_LARGE.jpg?w=243&amp;h=155&amp;t=1582141925</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>04-Apr-2018</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Catalina 36 Mk II pending sale</t>
+          <t>Custom Frederick Amor 40</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>74120</t>
+          <t>77,306</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>36' / 2003</t>
+          <t>40 ft / 1980</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>St Helens, Oregon</t>
+          <t>Seattle, Washington, United States</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=86497</t>
+          <t>https://www.yachtworld.com/boats/1980/custom-frederick-amor-40-3654122/</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/86497/main.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/9/53/7370953_20200219085940991_1_LARGE.jpg?w=243&amp;h=155&amp;t=1582141925</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>23-Jun-2020</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Pearson 34</t>
+          <t>Mariner 40</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>17805</t>
+          <t>78,513</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>34' / 1984</t>
+          <t>40 ft / 1978</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Portland, Oregon</t>
+          <t>Seattle, Washington, United States</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=84570</t>
+          <t>https://www.yachtworld.com/boats/1978/mariner-40-3810847/</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/84570/main.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/75/80/7717580_20210304181938225_1_LARGE.jpg?w=243&amp;h=155&amp;t=1614911344</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>09-Feb-2020</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Jensen Marine Cal 36</t>
+          <t>Custom Nanoose 39" Bill Garden Design</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>14079</t>
+          <t>83,345</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>36' / 1966</t>
+          <t>39 ft / 2004</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Newport, Oregon</t>
+          <t>Tacoma, Washington, United States</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=81358</t>
+          <t>https://www.yachtworld.com/boats/2004/custom-nanoose-39-bill-garden-design-3836114/</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/81358/main.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/77/43/7887743_20210516144201080_1_LARGE.jpg?w=243&amp;h=155&amp;t=1622218075</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>22-Jul-2019</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>CT 38</t>
+          <t>Fast Passage 39</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>37267</t>
+          <t>84,432</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>38' / 1986</t>
+          <t>39 ft / 1977</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Newport, Oregon</t>
+          <t>Seattle, Washington, United States</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=80306</t>
+          <t>https://www.yachtworld.com/boats/1977/fast-passage-39-3602671/</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/80306/main.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/33/79/7263379_0_210920200758_1.jpg?w=376&amp;h=253&amp;t=1621813628</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>05-Jun-2019</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Irwin Citation</t>
+          <t>Ericson 38-200</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>18219</t>
+          <t>82,137</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>34.25' / 1981</t>
+          <t>38 ft / 1988</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Isla Mujeres Mexico, Oregon</t>
+          <t>Anacortes, Washington, United States</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=77225</t>
+          <t>https://www.yachtworld.com/boats/1988/ericson-38-200-3827148/</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/77225/main.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/28/51/7852851_20210415204800869_1_LARGE.jpg?w=243&amp;h=155&amp;t=1618544934</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>14-Dec-2018</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>CHRIS CRAFT CARIBBEAN 35</t>
+          <t>C&amp;C 38</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>15321</t>
+          <t>56,167</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>35.1' / 1971</t>
+          <t>38 ft / 1980</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Charleston, Oregon</t>
+          <t>Anacortes, Washington, United States</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=74909</t>
+          <t>https://www.yachtworld.com/boats/1980/c-c-38-3679266/</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/74909/main.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/81/39/7468139_20200602115109913_1_LARGE.jpg?w=243&amp;h=155&amp;t=1591123871</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>06-Aug-2018</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Gulfstar sail master</t>
+          <t>Alajuela 38</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>70393</t>
+          <t>60,395</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>39' / 1981</t>
+          <t>38 ft / 1977</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>McCuddys Landing Marina 34326 Johnson Landing Rd Scappoose, Oregon</t>
+          <t>Olympia, Washington, United States</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=73675</t>
+          <t>https://www.yachtworld.com/boats/1977/alajuela-38-3607384/</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/73675/Boatatsail_edited.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/64/73/7276473_20191107120706180_1_LARGE.jpg?w=376&amp;h=253&amp;t=1573157344</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>17-Jun-2018</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ericson 34 x </t>
+          <t>Ericson 38-200</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>12422</t>
+          <t>57,375</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>33.9' / 1977</t>
+          <t>38 ft / 1989</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Portland, Oregon</t>
+          <t>Port Townsend, Washington, United States</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/cgi-bin/view.cgi?sailboat=70731</t>
+          <t>https://www.yachtworld.com/boats/1989/ericson-38-200-3752681/</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>https://www.sailboatlistings.com/sailimg/t/70731/main.jpg</t>
+          <t>https://images.yachtworld.com/resize/1/36/7/7723607_20210122153124917_1_LARGE.jpg?w=243&amp;h=155&amp;t=1611790438</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Sailboatlisting.com</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>03-Feb-2018</t>
-        </is>
-      </c>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>CT cruisers</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>63,898</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>38 ft / 1986</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Seattle, Washington, United States</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>https://www.yachtworld.com/boats/1986/ct-cruisers-3580484/</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>https://images.yachtworld.com/resize/1/6/52/7200652_20190831083816437_1_LARGE.jpg?w=243&amp;h=155&amp;t=1567265896</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>CT 38</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>59,791</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>38 ft / 1983</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Seattle, Washington, United States</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>https://www.yachtworld.com/boats/1983/ct-38-3707663/</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>https://images.yachtworld.com/resize/1/62/5/7566205_20210423134319958_1_LARGE.jpg?w=243&amp;h=155&amp;t=1619210995</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Hunter 386</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>96,511</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>38 ft / 2003</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Seattle, Washington, United States</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>https://www.yachtworld.com/boats/2003/hunter-386-3833227/</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>https://images.yachtworld.com/resize/1/21/41/7872141_20210506105852273_1_LARGE.jpg?w=243&amp;h=155&amp;t=1620323940</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>C&amp;C MKIII</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>62,811</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>38 ft / 1986</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Seattle, Washington, United States</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>https://www.yachtworld.com/boats/1986/c-c-mkiii-3839117/</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>https://images.yachtworld.com/resize/1/59/30/7895930_20210527115408354_1_LARGE.jpg?w=243&amp;h=155&amp;t=1622141827</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Banjer 37 Pilothouse Motor Sailer Ketch</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>90,592</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>37 ft / 1970</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Anacortes, Washington, United States</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>https://www.yachtworld.com/boats/1970/banjer-37-pilothouse-motor-sailer-ketch-3815310/</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>https://images.yachtworld.com/resize/1/92/58/7819258_20210413130918835_1_LARGE.jpg?w=243&amp;h=155&amp;t=1618344570</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Cooper Seabird</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>56,771</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>37 ft / 1978</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Seattle, Washington, United States</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>https://www.yachtworld.com/boats/1978/cooper-seabird-3833949/</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>https://images.yachtworld.com/resize/1/41/60/7874160_20210508140726078_1_LARGE.jpg?w=243&amp;h=155&amp;t=1620512374</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Bavaria 36</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>90,592</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>36 ft / 2003</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Blaine, Washington, United States</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>https://www.yachtworld.com/boats/2003/bavaria-36-3822961/</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>https://images.yachtworld.com/resize/1/99/24/7839924_20210403204415456_1_LARGE.jpg?w=243&amp;h=155&amp;t=1617509999</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Freedom 36</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>69,466</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>36 ft / 1986</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Anacortes, Washington, United States</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>https://www.yachtworld.com/boats/1986/freedom-36-3838352/</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>https://images.yachtworld.com/resize/1/37/61/7893761_20210522121322339_1_LARGE.jpg?w=243&amp;h=155&amp;t=1621710803</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>C&amp;C 36</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>53,156</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>36 ft / 1978</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Anacortes, Washington, United States</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>https://www.yachtworld.com/boats/1978/c-c-36-3505548/</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>https://images.yachtworld.com/resize/1/97/61/6969761_20190130203320262_1_LARGE.jpg?w=243&amp;h=155&amp;t=1548909201</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Cascade 36</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>54,244</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>36 ft / 1980</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Olympia, Washington, United States</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>https://www.yachtworld.com/boats/1980/cascade-36-3730454/</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>https://images.yachtworld.com/resize/1/31/37/7643137_20210225130358963_1_LARGE.jpg?w=243&amp;h=155&amp;t=1614287039</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>C&amp;C 34 Plus</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>99,064</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>36 ft / 1991</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Vashon, Washington, United States</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>https://www.yachtworld.com/boats/1991/c-c-34-plus-3830617/</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>https://images.yachtworld.com/resize/1/37/68/7863768_20210427113955658_1_LARGE.jpg?w=376&amp;h=253&amp;t=1619569023</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Sweden Yachts 36 Sloop</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>90,608</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>36 ft / 1987</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Seattle, Washington, United States</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>https://www.yachtworld.com/boats/1987/sweden-yachts-36-sloop-3838981/</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>https://images.yachtworld.com/resize/1/11/46/7881146_20210512142815909_1_LARGE.jpg?w=376&amp;h=253&amp;t=1620854932</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Pearson 36-2 Sloop</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>70,070</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>36 ft / 1986</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Anacortes, Washington, United States</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>https://www.yachtworld.com/boats/1986/pearson-36-2-sloop-3831837/</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>https://images.yachtworld.com/resize/1/64/57/7866457_20210504103539539_1_LARGE.jpg?w=243&amp;h=155&amp;t=1620149775</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Jeanneau Sun Odyssey 36</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>61,613</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>36 ft / 1990</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Anacortes, Washington, United States</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>https://www.yachtworld.com/boats/1990/jeanneau-sun-odyssey-36-3742085/</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>https://images.yachtworld.com/resize/1/81/97/7678197_20201211123709095_1_LARGE.jpg?w=243&amp;h=155&amp;t=1607719492</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Union 36 Cutter</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>83,963</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>36 ft / 1981</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Seattle, Washington, United States</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>https://www.yachtworld.com/boats/1981/union-36-cutter-3804673/</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>https://images.yachtworld.com/resize/1/47/72/7794772_20210302111746135_1_LARGE.jpg?w=243&amp;h=155&amp;t=1614712681</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Custom Steel Cutter</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>51,344</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>36 ft / 1985</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Port Townsend, Washington, United States</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>https://www.yachtworld.com/boats/1985/custom-steel-cutter-3684184/</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>https://images.yachtworld.com/resize/1/52/28/7415228_20200616070834223_1_LARGE.jpg?w=243&amp;h=155&amp;t=1592317011</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Custom Brent Swain 36</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>83,359</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>36 ft / 2001</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Everett, Washington, United States</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>https://www.yachtworld.com/boats/2001/custom-brent-swain-36-3545880/</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>https://images.yachtworld.com/resize/1/15/92/6341592_20170819133911419_1_LARGE.jpg?w=243&amp;h=155&amp;t=1559079913</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Carroll Marine 1D35</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>83,359</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>35 ft / 1999</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Seattle, Washington, United States</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>https://www.yachtworld.com/boats/1999/carroll-marine-1d35-3715581/</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>https://images.yachtworld.com/resize/1/11/69/7591169_20200921164142998_1_LARGE.jpg?w=243&amp;h=155&amp;t=1600731855</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Trident Voyager Pilothouse</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>66,325</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>35 ft / 1978</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Vashon, Washington, United States</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>https://www.yachtworld.com/boats/1978/trident-voyager-pilothouse-3529925/</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>https://images.yachtworld.com/resize/1/48/84/7044884_20190410121437649_1_LARGE.jpg?w=376&amp;h=253&amp;t=1555178544</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Carroll Marine One Design 35 1D35</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>71,278</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>35 ft / 1999</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Seattle, Washington, United States</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>https://www.yachtworld.com/boats/1999/carroll-marine-one-design-35-1d35-3821262/</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>https://images.yachtworld.com/resize/1/7/95/7830795_20210326115306605_1_LARGE.jpg?w=376&amp;h=253&amp;t=1616784798</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Beneteau Oceanis 351</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>72,365</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>35 ft / 1995</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Seattle, Washington, United States</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>https://www.yachtworld.com/boats/1995/beneteau-oceanis-351-3838678/</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>https://images.yachtworld.com/resize/1/40/53/7884053_20210523093048110_1_LARGE.jpg?w=243&amp;h=155&amp;t=1621787494</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Sparkman &amp; Stephens K35</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>59,801</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>35 ft / 1957</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Port Townsend, Washington, United States</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>https://www.yachtworld.com/boats/1957/sparkman-stephens-k35-3672181/</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>https://images.yachtworld.com/resize/1/80/84/7378084_20200227173011938_1_LARGE.jpg?w=243&amp;h=155&amp;t=1582853451</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Ta Shing Baba 35</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>83,949</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>35 ft / 1985</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Seattle, Washington, United States</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>https://www.yachtworld.com/boats/1985/ta-shing-baba-35-3733007/</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>https://images.yachtworld.com/resize/1/23/78/7582378_20210421153147401_1_LARGE.jpg?w=376&amp;h=253&amp;t=1619044669</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Chris White Hammerhead</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>59,791</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>34 ft / 1999</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Poulsbo, Washington, United States</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>https://www.yachtworld.com/boats/1999/chris-white-hammerhead-3834984/</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>https://images.yachtworld.com/resize/1/40/47/7884047_20210512113643786_1_LARGE.jpg?w=243&amp;h=155&amp;t=1620844605</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Olson Olson 34</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>65,830</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>34 ft / 1990</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Seattle, Washington, United States</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>https://www.yachtworld.com/boats/1990/olson-olson-34-3824021/</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>https://images.yachtworld.com/resize/1/26/22/7842622_20210405135959241_1_LARGE.jpg?w=376&amp;h=253&amp;t=1617656821</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Pacific Seacraft 34</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>90,472</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>34 ft / 1985</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Seattle, Washington, United States</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>https://www.yachtworld.com/boats/1985/pacific-seacraft-34-3666768/</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>https://images.yachtworld.com/resize/1/31/6/7373106_20200330110728576_1_LARGE.jpg?w=243&amp;h=155&amp;t=1585592887</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Bruce Roberts 40</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>72,473</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>40 ft / 1986</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Portland, Oregon, United States</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>https://www.yachtworld.com/boats/1986/bruce-roberts-40-3750985/</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>https://images.yachtworld.com/resize/1/74/64/4767464_20140722170608637_1_LARGE.jpg?w=243&amp;h=155&amp;t=1611189182</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Fast Passage 39</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>99,652</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>39 ft / 1979</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Portland, Oregon, United States</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>https://www.yachtworld.com/boats/1979/fast-passage-39-3573138/</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>https://images.yachtworld.com/resize/1/61/95/7166195_20190807162530384_1_LARGE.jpg?w=243&amp;h=155&amp;t=1565220567</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Yachtworld.com</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
